--- a/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
+++ b/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssanchez\Documents\trustCertificationSystemBlockchain\platform\microservices\blockchain-gateway-api\src\main\resources\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssanchez\Documents\trustCertificationSystemBlockchain\platform\microservices\trust-certification-system-gateway-api\src\main\resources\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Cosechalia Platform" sheetId="1" r:id="rId1"/>
+    <sheet name="TCS Platform" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>de_DE</t>
   </si>
@@ -58,6 +58,351 @@
   </si>
   <si>
     <t>The user identifier is not valid</t>
+  </si>
+  <si>
+    <t>bad_credentials</t>
+  </si>
+  <si>
+    <t>signup_failed</t>
+  </si>
+  <si>
+    <t>refresh_token_failed</t>
+  </si>
+  <si>
+    <t>user_activation_failed</t>
+  </si>
+  <si>
+    <t>get_ca_failed</t>
+  </si>
+  <si>
+    <t>enable_ca_failed</t>
+  </si>
+  <si>
+    <t>disable_ca_failed</t>
+  </si>
+  <si>
+    <t>enable_certificate_failed</t>
+  </si>
+  <si>
+    <t>disable_certificate_failed</t>
+  </si>
+  <si>
+    <t>get_certificate_issued_failed</t>
+  </si>
+  <si>
+    <t>update_certificate_issued_visibility_failed</t>
+  </si>
+  <si>
+    <t>get_certificates_failed</t>
+  </si>
+  <si>
+    <t>issue_new_certificate_failed</t>
+  </si>
+  <si>
+    <t>accept_certificate_request_failed</t>
+  </si>
+  <si>
+    <t>reject_certificate_request_failed</t>
+  </si>
+  <si>
+    <t>renew_certificate_failed</t>
+  </si>
+  <si>
+    <t>get_certificates_issuance_requests_failed</t>
+  </si>
+  <si>
+    <t>download_certificate_file_failed</t>
+  </si>
+  <si>
+    <t>enable_certification_course_failed</t>
+  </si>
+  <si>
+    <t>disable_certification_course_failed</t>
+  </si>
+  <si>
+    <t>save_certification_course_failed</t>
+  </si>
+  <si>
+    <t>get_certification_course_detail_failed</t>
+  </si>
+  <si>
+    <t>no_notifications_found</t>
+  </si>
+  <si>
+    <t>no_notification_found</t>
+  </si>
+  <si>
+    <t>delete_notification_failed</t>
+  </si>
+  <si>
+    <t>get_my_tokens_failed</t>
+  </si>
+  <si>
+    <t>get_token_prices_failed</t>
+  </si>
+  <si>
+    <t>get_client_tokens_failed</t>
+  </si>
+  <si>
+    <t>place_tokens_order_failed</t>
+  </si>
+  <si>
+    <t>confirm_order_failed</t>
+  </si>
+  <si>
+    <t>save_translation_failed</t>
+  </si>
+  <si>
+    <t>save_all_translation_failed</t>
+  </si>
+  <si>
+    <t>no_translations_found</t>
+  </si>
+  <si>
+    <t>translation_not_found</t>
+  </si>
+  <si>
+    <t>translation_file_upload_fail</t>
+  </si>
+  <si>
+    <t>user_account_validated_title</t>
+  </si>
+  <si>
+    <t>user_account_validated_message</t>
+  </si>
+  <si>
+    <t>user_order_completed_title</t>
+  </si>
+  <si>
+    <t>user_order_completed_message</t>
+  </si>
+  <si>
+    <t>Las credenciales no son válidas</t>
+  </si>
+  <si>
+    <t>Ocurrió un error durante la activación de la cuenta.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al recuperar la información de la entidad certificadora.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al habilitar la entidad certificadora.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al deshabilitar la entidad certificadora.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al habilitar el certificado.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al deshabilitar el certificado.</t>
+  </si>
+  <si>
+    <t>Credentials are invalid</t>
+  </si>
+  <si>
+    <t>Ocurrió un error durante el registro.</t>
+  </si>
+  <si>
+    <t>An error occurred during registration</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al refrescar la sesión.</t>
+  </si>
+  <si>
+    <t>An error occurred while refreshing the session.</t>
+  </si>
+  <si>
+    <t>An error occurred during account activation.</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving the information from the CA.</t>
+  </si>
+  <si>
+    <t>An error occurred while enabling the CA.</t>
+  </si>
+  <si>
+    <t>An error occurred while disabling the CA.</t>
+  </si>
+  <si>
+    <t>An error occurred while enabling the certificate.</t>
+  </si>
+  <si>
+    <t>An error occurred while disabling the certificate.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al recuperar la información del certificado.</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving the certificate detail</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al actualizar la visibilidad del certificado.</t>
+  </si>
+  <si>
+    <t>An error occurred while updating the visibility of the certificate.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al recuperar la información de los certificados.</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving certificate information.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al registrar el certificado.</t>
+  </si>
+  <si>
+    <t>An error occurred while registering the certificate.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al aceptar la solicitud de certificado.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al rechazar la solicitud de certificado.</t>
+  </si>
+  <si>
+    <t>An error occurred while rejecting the certificate request.</t>
+  </si>
+  <si>
+    <t>An error occurred while accepting the certificate request.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al renovar el certificado.</t>
+  </si>
+  <si>
+    <t>An error occurred while renewing the certificate.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al recuperar las solicitudes de certificados.</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving certificate requests.</t>
+  </si>
+  <si>
+    <t>An error occurred while downloading the certificate.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al descargar el certificado.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al habilitar el curso.</t>
+  </si>
+  <si>
+    <t>An error occurred while enabling the course.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al deshabilitar el curso.</t>
+  </si>
+  <si>
+    <t>An error occurred while disabling the course.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al guardar el curso.</t>
+  </si>
+  <si>
+    <t>An error occurred while saving the course.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al recuperar la información del curso.</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving course information.</t>
+  </si>
+  <si>
+    <t>No hay notificaciones disponibles.</t>
+  </si>
+  <si>
+    <t>No notifications available.</t>
+  </si>
+  <si>
+    <t>No se podido recuperar la notificación.</t>
+  </si>
+  <si>
+    <t>Failed to retrieve notification.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al eliminar la notificación.</t>
+  </si>
+  <si>
+    <t>There was an error removing the notification.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al recuperar los tokens disponibles.</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving available tokens.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al recuperar los precios de los tokens.</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving token prices.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al procesar el pedido de tokens.</t>
+  </si>
+  <si>
+    <t>An error occurred while processing the token order.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al confirmar el pedido de tokens.</t>
+  </si>
+  <si>
+    <t>An error occurred while confirming the token order.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al guardar la traducción.</t>
+  </si>
+  <si>
+    <t>An error occurred while saving the translation.</t>
+  </si>
+  <si>
+    <t>Ocurrío un error al guardar las traducciones.</t>
+  </si>
+  <si>
+    <t>An error occurred while saving the translations.</t>
+  </si>
+  <si>
+    <t>No se han encontrado traducciones.</t>
+  </si>
+  <si>
+    <t>No translations found.</t>
+  </si>
+  <si>
+    <t>Traducción no encontrada.</t>
+  </si>
+  <si>
+    <t>Translation not found.</t>
+  </si>
+  <si>
+    <t>Ocurrió un error al procesar el fichero de traducciones.</t>
+  </si>
+  <si>
+    <t>An error occurred while processing the translation file.</t>
+  </si>
+  <si>
+    <t>Tú cuenta fue validada con éxito.</t>
+  </si>
+  <si>
+    <t>Your account was successfully validated.</t>
+  </si>
+  <si>
+    <t>Tú cuenta en TCS has sido validada correctamente, a partir de ahora puedes registrar certificados.</t>
+  </si>
+  <si>
+    <t>Your TCS account has been successfully validated, from now on you can register certificates.</t>
+  </si>
+  <si>
+    <t>Your tokens order was completed.</t>
+  </si>
+  <si>
+    <t>Tú pedido de tokens fue completado.</t>
+  </si>
+  <si>
+    <t>Tú cuenta ha sido actualizada con la cantidad de tokens adquiridad.</t>
+  </si>
+  <si>
+    <t>Your account has been updated with the amount of tokens purchased.</t>
   </si>
 </sst>
 </file>
@@ -460,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,155 +868,436 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="5"/>
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4"/>
     </row>
@@ -685,11 +1311,11 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
@@ -701,7 +1327,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
@@ -737,7 +1363,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
@@ -765,7 +1391,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
@@ -773,7 +1399,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
@@ -788,14 +1414,10 @@
       <c r="C71" s="4"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="4"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="4"/>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
+++ b/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
+++ b/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>de_DE</t>
   </si>
@@ -403,6 +403,27 @@
   </si>
   <si>
     <t>Your account has been updated with the amount of tokens purchased.</t>
+  </si>
+  <si>
+    <t>certificate_should_be_pending_review</t>
+  </si>
+  <si>
+    <t>course_id_not_valid</t>
+  </si>
+  <si>
+    <t>notification_id_not_valid</t>
+  </si>
+  <si>
+    <t>translation_file_invalid</t>
+  </si>
+  <si>
+    <t>translations_not_empty</t>
+  </si>
+  <si>
+    <t>translation_language_invalid</t>
+  </si>
+  <si>
+    <t>new_course_registration_requested</t>
   </si>
 </sst>
 </file>
@@ -807,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,90 +1319,114 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
       <c r="B43" s="2"/>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
       <c r="B44" s="2"/>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
       <c r="B45" s="2"/>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
       <c r="B46" s="2"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
       <c r="B47" s="2"/>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
       <c r="B50" s="2"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="4"/>
     </row>

--- a/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
+++ b/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
   <si>
     <t>de_DE</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>new_course_registration_requested</t>
+  </si>
+  <si>
+    <t>user_password_request_reset_success</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1375,6 +1378,9 @@
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
       <c r="B51" s="2"/>
       <c r="C51" s="5"/>
     </row>

--- a/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
+++ b/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
   <si>
     <t>de_DE</t>
   </si>
@@ -399,9 +399,6 @@
     <t>Tú pedido de tokens fue completado.</t>
   </si>
   <si>
-    <t>Tú cuenta ha sido actualizada con la cantidad de tokens adquiridad.</t>
-  </si>
-  <si>
     <t>Your account has been updated with the amount of tokens purchased.</t>
   </si>
   <si>
@@ -427,6 +424,171 @@
   </si>
   <si>
     <t>user_password_request_reset_success</t>
+  </si>
+  <si>
+    <t>mail_user_pending_validation_subject_title</t>
+  </si>
+  <si>
+    <t>mail_ca_disabled_subject_title</t>
+  </si>
+  <si>
+    <t>mail_ca_enabled_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_disabled_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_enabled_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_renewed_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_request_accepted_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_request_rejected_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_visibility_changed_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_course_disabled_subject_title</t>
+  </si>
+  <si>
+    <t>mail_certificate_course_enabled_subject_title</t>
+  </si>
+  <si>
+    <t>mail_issue_certificate_request_subject_title</t>
+  </si>
+  <si>
+    <t>mail_new_course_registration_requested_subject_title</t>
+  </si>
+  <si>
+    <t>mail_user_activated_subject_title</t>
+  </si>
+  <si>
+    <t>Bienvenido a Trust Certification System {0}!. Es hora de confirmar tú cuenta.</t>
+  </si>
+  <si>
+    <t>Welcome to Trust Certification System {0} !. It's time to confirm your account.</t>
+  </si>
+  <si>
+    <t>{0}, Tú cuenta en Trust Certification System ha sido activada!</t>
+  </si>
+  <si>
+    <t>{0}, Your Trust Certification System account has been activated!.</t>
+  </si>
+  <si>
+    <t>Tú cuenta ha sido actualizada con la cantidad de tokens adquiridos.</t>
+  </si>
+  <si>
+    <t>El identificador del usuario no tiene un formato correcto.</t>
+  </si>
+  <si>
+    <t>The user identifier is not in the correct format.</t>
+  </si>
+  <si>
+    <t>El estado de la solicitud de certificado no es válido para realizar esta operación.</t>
+  </si>
+  <si>
+    <t>The status of the certificate request is not valid to perform this operation.</t>
+  </si>
+  <si>
+    <t>El identificador del curso no tiene un formato correcto.</t>
+  </si>
+  <si>
+    <t>The course identifier is not formatted correctly.</t>
+  </si>
+  <si>
+    <t>El identificador de la notificación no tiene un formato correcto.</t>
+  </si>
+  <si>
+    <t>The notification identifier is not in the correct format.</t>
+  </si>
+  <si>
+    <t>El fichero de traducciones no es válido.</t>
+  </si>
+  <si>
+    <t>The translation file is not valid.</t>
+  </si>
+  <si>
+    <t>El lenguaje especificado para la traducción no es correcto.</t>
+  </si>
+  <si>
+    <t>The language specified for the translation is not correct.</t>
+  </si>
+  <si>
+    <t>{0}, Tú cuenta como entidad certificadora en Trust Certification System ha sido deshabilitada.</t>
+  </si>
+  <si>
+    <t>{0}, Tú cuenta como entidad certificadora en Trust Certification System ha sido habilitada.</t>
+  </si>
+  <si>
+    <t>{0}, Tú certificado {1} en Trust Certification System ha sido deshabilitado.</t>
+  </si>
+  <si>
+    <t>{0}, Your account as a certification authority in the Trust Certification System has been disabled.</t>
+  </si>
+  <si>
+    <t>{0}, Your account as a certification authority in the Trust Certification System has been enabled.</t>
+  </si>
+  <si>
+    <t>{0}, Your certificate {1} in the Trust Certification System has been disabled.</t>
+  </si>
+  <si>
+    <t>{0}, Tú certificado {1} en Trust Certification System ha sido habilitado.</t>
+  </si>
+  <si>
+    <t>{0}, Your certificate {1} in the Trust Certification System has been enabled.</t>
+  </si>
+  <si>
+    <t>{0}, Tú certificado {1} en Trust Certification System ha sido renovado!</t>
+  </si>
+  <si>
+    <t>{0}, Your certificate {1} in the Trust Certification System has been renewed!</t>
+  </si>
+  <si>
+    <t>{0}, La visibilidad de tú certificado {1} ha sido actualizada!.</t>
+  </si>
+  <si>
+    <t>{0}, The visibility of your certificate {1} has been updated!.</t>
+  </si>
+  <si>
+    <t>{0}, El curso {1} ha sido deshabilitado!</t>
+  </si>
+  <si>
+    <t>{0}, Course {1} has been disabled!</t>
+  </si>
+  <si>
+    <t>{0}, El curso {1} ha sido habilitado!</t>
+  </si>
+  <si>
+    <t>{0}, Course {1} has been enabled!</t>
+  </si>
+  <si>
+    <t>{0}, has recibido una nueva solicitud de emisión de certificado!</t>
+  </si>
+  <si>
+    <t>{0}, you have received a new certificate issuance request!.</t>
+  </si>
+  <si>
+    <t>{0}, Tú solicitud de registro del curso {1} ha sido recibida!</t>
+  </si>
+  <si>
+    <t>{0}, Your course registration request {1} has been received!</t>
+  </si>
+  <si>
+    <t>{0}, Tú solicitud de emisión del certificado {1} ha sido aceptada!</t>
+  </si>
+  <si>
+    <t>{0}, Tú solicitud de emisión de certificado {1} ha sido rechazada!</t>
+  </si>
+  <si>
+    <t>{0}, Your request to issue the certificate {1} has been accepted!</t>
+  </si>
+  <si>
+    <t>{0}, Your request to issue a certificate {1} has been rejected!</t>
   </si>
 </sst>
 </file>
@@ -481,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +651,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1315,159 +1480,281 @@
         <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="5"/>
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="5"/>
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="5"/>
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="5"/>
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="5"/>
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="5"/>
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="5"/>
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="4"/>
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="4"/>
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="4"/>
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="4"/>
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="4"/>
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" s="4"/>
     </row>
   </sheetData>

--- a/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
+++ b/platform/microservices/trust-certification-system-gateway-api/src/main/resources/i18n/translation_default.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="217">
   <si>
     <t>de_DE</t>
   </si>
@@ -589,6 +589,87 @@
   </si>
   <si>
     <t>{0}, Your request to issue a certificate {1} has been rejected!</t>
+  </si>
+  <si>
+    <t>mail_ca_enabled_body</t>
+  </si>
+  <si>
+    <t>{0}, Your account as CA has been successfully enabled, now you can register new courses and issuer new certificates</t>
+  </si>
+  <si>
+    <t>{0}, Tu cuenta como CA ha sido habilitada exitosamente, ahora puedes dar de alta nuevos cursos y emitir nuevos certificados</t>
+  </si>
+  <si>
+    <t>mail_ca_disabled_body</t>
+  </si>
+  <si>
+    <t>{0}, Tu cuenta como CA ha sido deshabilitada, no podrás registrar nuevos cursos ni emitir nuevos certificados hasta que sea activada de nuevo.</t>
+  </si>
+  <si>
+    <t>{0}, Your CA account has been disabled, you will not be able to register new courses or issue new certificates until it is activated again.</t>
+  </si>
+  <si>
+    <t>mail_certificate_disabled_body</t>
+  </si>
+  <si>
+    <t>{0}, Tú certificado {1} ha sido deshabilitado, este no podrá ser renovado ni utilizado hasta que sea habilitado de nuevo.</t>
+  </si>
+  <si>
+    <t>{0}, Your certificate {1} has been disabled, it cannot be renewed or used until it is enabled again.</t>
+  </si>
+  <si>
+    <t>mail_certificate_enabled_body</t>
+  </si>
+  <si>
+    <t>{0}, Tú certificado {1} ha sido habilitado, podrás renovar y utilizar tu certificado con normalidad.</t>
+  </si>
+  <si>
+    <t>{0}, Your certificate {1} has been enabled, you can renew and use your certificate normally.</t>
+  </si>
+  <si>
+    <t>mail_certificate_renewed_body</t>
+  </si>
+  <si>
+    <t>mail_certificate_request_accepted_body</t>
+  </si>
+  <si>
+    <t>{0}, Tú certificado {1} ha sido renovado, podrás seguir utilizándolo con normalidad.</t>
+  </si>
+  <si>
+    <t>{0}, Your certificate {1} has been renewed, you can continue to use it normally.</t>
+  </si>
+  <si>
+    <t>{0}, Tú solicitud de emisión del certificado {1} ha sido aceptada, en breve tú certificado será generado y almacenado en TCS.</t>
+  </si>
+  <si>
+    <t>{0}, Your request to issue the certificate {1} has been accepted, shortly your certificate will be generated and stored in TCS.</t>
+  </si>
+  <si>
+    <t>{0}, Tú solicitud de emisión del certificado {1} ha sido rechazada.</t>
+  </si>
+  <si>
+    <t>{0}, Your request to issue the certificate {1} has been rejected.</t>
+  </si>
+  <si>
+    <t>mail_certificate_request_rejected_body</t>
+  </si>
+  <si>
+    <t>mail_certificate_changed_to_visible_body</t>
+  </si>
+  <si>
+    <t>mail_certificate_changed_to_invisible_body</t>
+  </si>
+  <si>
+    <t>{0}, The visibility of your certificate {1} has been updated, your certificate is now visible.</t>
+  </si>
+  <si>
+    <t>{0}, La visibilidad de tú certificado {1} ha sido actualizada, tú certificado ahora es visible.</t>
+  </si>
+  <si>
+    <t>{0}, La visibilidad de tú certificado {1} ha sido actualizada, tú certificado ahora no es visible.</t>
+  </si>
+  <si>
+    <t>{0}, The visibility of your certificate {1} has been updated, your certificate is now not visible.</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1728,34 +1809,103 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="5"/>
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="5"/>
+      <c r="A67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="4"/>
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="4"/>
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="4"/>
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="4"/>
+      <c r="A71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="4"/>
+      <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="4"/>
+      <c r="A74" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
